--- a/supplementary/S3_Table.xlsx
+++ b/supplementary/S3_Table.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Dropbox\Systematic review\Supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Documents\cfss\RabiesScopingReview\supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F05B67-8A68-4072-8101-5EDD7D79FEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08DB1F3-DEC7-44F1-80FF-13AA59A1523A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="1272" windowWidth="17280" windowHeight="9060" xr2:uid="{4A6E0DFD-479B-4748-831A-6082A8B077A1}"/>
+    <workbookView xWindow="732" yWindow="1212" windowWidth="17280" windowHeight="5688" xr2:uid="{4A6E0DFD-479B-4748-831A-6082A8B077A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="ST3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/supplementary/S3_Table.xlsx
+++ b/supplementary/S3_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Documents\cfss\RabiesScopingReview\supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Dropbox\Systematic review\Supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08DB1F3-DEC7-44F1-80FF-13AA59A1523A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1AB5D7-DF1B-4606-A089-9A36243F3E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="1212" windowWidth="17280" windowHeight="5688" xr2:uid="{4A6E0DFD-479B-4748-831A-6082A8B077A1}"/>
+    <workbookView xWindow="-108" yWindow="372" windowWidth="23256" windowHeight="12696" xr2:uid="{4A6E0DFD-479B-4748-831A-6082A8B077A1}"/>
   </bookViews>
   <sheets>
     <sheet name="ST3" sheetId="1" r:id="rId1"/>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
